--- a/Setup and Installation/Java Lab Setup.xlsx
+++ b/Setup and Installation/Java Lab Setup.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Training\Virtual Training\LocusIT\Java\Setup and Installation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Online Training\LocusIT\Java\Setup and Installation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8B130ED-CAF4-4B9A-9E3A-F28F4E07E2AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0079A6E8-722B-402D-84A6-3B001338FB4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>Serial No.</t>
   </si>
@@ -61,12 +61,6 @@
     <t>Eclipse</t>
   </si>
   <si>
-    <t>https://www.eclipse.org/downloads/packages/release/photon/r</t>
-  </si>
-  <si>
-    <t>Download and install Eclipse IDE for Java EE Developers - Eclipse Photon</t>
-  </si>
-  <si>
     <t>Apache Maven 3.8.4</t>
   </si>
   <si>
@@ -77,6 +71,9 @@
   </si>
   <si>
     <t>https://tomcat.apache.org/download-90.cgi</t>
+  </si>
+  <si>
+    <t>Eclipse IDE for Enterprise Java and Web Developers</t>
   </si>
 </sst>
 </file>
@@ -200,9 +197,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -218,6 +212,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -499,7 +496,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -525,10 +522,10 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="18">
+      <c r="A3" s="17">
         <v>1</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="18" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="5" t="s">
@@ -539,22 +536,22 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="18"/>
-      <c r="B4" s="19"/>
+      <c r="A4" s="17"/>
+      <c r="B4" s="18"/>
       <c r="C4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="19" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" ht="43.2">
-      <c r="A5" s="18"/>
-      <c r="B5" s="19"/>
+      <c r="A5" s="17"/>
+      <c r="B5" s="18"/>
       <c r="C5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="20"/>
+      <c r="D5" s="19"/>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" ht="18">
       <c r="A6" s="3"/>
@@ -579,32 +576,33 @@
       <c r="B8" s="12"/>
       <c r="C8" s="13"/>
     </row>
-    <row r="9" spans="1:4" ht="29.4">
+    <row r="9" spans="1:4" ht="18">
       <c r="A9" s="11">
         <v>3</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>14</v>
+      <c r="C9" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="11"/>
+      <c r="D10" s="19"/>
     </row>
     <row r="11" spans="1:4" ht="18">
       <c r="A11" s="11">
         <v>4</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>16</v>
+        <v>13</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -614,11 +612,11 @@
       <c r="A13" s="11">
         <v>5</v>
       </c>
-      <c r="B13" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>18</v>
+      <c r="B13" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -627,11 +625,11 @@
     <row r="16" spans="1:4" ht="18">
       <c r="A16" s="11"/>
       <c r="B16" s="12"/>
-      <c r="C16" s="15"/>
+      <c r="C16" s="14"/>
     </row>
     <row r="17" spans="1:3" ht="17.100000000000001" customHeight="1">
       <c r="A17" s="11"/>
-      <c r="B17" s="16"/>
+      <c r="B17" s="15"/>
       <c r="C17" s="13"/>
     </row>
     <row r="19" spans="1:3">
@@ -647,20 +645,21 @@
       <c r="A25" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="D4:D5"/>
+    <mergeCell ref="D9:D10"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C7" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="C11" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="C3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
     <hyperlink ref="C5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="C9" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="C13" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="C13" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="C9" r:id="rId6" tooltip="Eclipse IDE for Enterprise Java and Web Developers" display="https://www.eclipse.org/downloads/packages/release/2023-06/r/eclipse-ide-enterprise-java-and-web-developers" xr:uid="{B39C56F9-4CCA-4EE6-83AA-A01500205015}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>